--- a/biology/Botanique/Tillandsia_heteromorpha/Tillandsia_heteromorpha.xlsx
+++ b/biology/Botanique/Tillandsia_heteromorpha/Tillandsia_heteromorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia heteromorpha Mez est une plante de la famille des Bromeliaceae.
 L'épithète heteromorpha signifie « hétéromorphe ; qui présente des formes différentes », mais la raison de cette appellation n'est pas explicitée dans le protologue.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia heteromorpha Mez, in Repert. Spec. Nov. Regni Veg. 3: 41 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Statura parva; foliis caulem longum dense quaquaverse vestientibus, lepidibus appressis dense obtectis incanis; scapo abbreviato nunc subnullo; inflorescentia densissima capituliformi, bipinnatim panniculata[sic]; spicis subdigitatim axi primario insertis, dense flabellatis, paucifloris, omnibus bracteas primarias aliquid superantibus; bracteis florigeris valde carinatis, dorso lepidotulis, laevibus vel sublaevibus; floribus erectis; sepalis subaequaliter fere liberis; petalis violaceis apice albis, genitalia bene superantibus. »
-Type : leg. A. Weberbauer, n°. 3742, 1903-10-26 ; « Peruvia, prov. Huari, dept. Ancachs, in saxis valus ripae Puccha, supra Masin »[1] ; « Oberhalb Masin im Thale des Púccha Flusses, Deptm. Ancachs, Prov. Huari. Felsen - 2500 m » ; Holotypus B [ Planche en ligne ].
+Type : leg. A. Weberbauer, n°. 3742, 1903-10-26 ; « Peruvia, prov. Huari, dept. Ancachs, in saxis valus ripae Puccha, supra Masin » ; « Oberhalb Masin im Thale des Púccha Flusses, Deptm. Ancachs, Prov. Huari. Felsen - 2500 m » ; Holotypus B [ Planche en ligne ].
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée vivace rameuse, phyllotaxie alterne hélicoïdale ; saxicole[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée vivace rameuse, phyllotaxie alterne hélicoïdale ; saxicole,.
 Habitat : ?
-Altitude : 850 m[2] ; 2500 m (typus).</t>
+Altitude : 850 m ; 2500 m (typus).</t>
         </is>
       </c>
     </row>
@@ -634,11 +654,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Pérou
-Ancash[1]
+Ancash
 Cajamarca</t>
         </is>
       </c>
@@ -667,9 +689,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia heteromorpha est de culture aisée en situation lumineuse et plutôt sèche[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia heteromorpha est de culture aisée en situation lumineuse et plutôt sèche.
 </t>
         </is>
       </c>
@@ -700,10 +724,49 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tillandsia heteromorpha var. heteromorpha
-(autonyme)
-Tillandsia heteromorpha var. rauhii L.Hrom.
-Tillandsia heteromorpha var. rauhii L.Hrom., in Bromelie 5: 38 (2005)
+          <t>Tillandsia heteromorpha var. heteromorpha</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_heteromorpha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_heteromorpha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia heteromorpha var. rauhii L.Hrom.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tillandsia heteromorpha var. rauhii L.Hrom., in Bromelie 5: 38 (2005)
 Type : leg. H.Hromadnik &amp; L.Hromadnik, n° HR 2181, 1976-8-22 ; « Cajamarca: upper part of the Río Chancay valley, 1200 m » ; Holotypus USM, Isotypus WU.
 Distribution :
  Pérou
